--- a/data/pca/factorExposure/factorExposure_2019-02-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-02-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1097783844870914</v>
+        <v>-0.06637996340533069</v>
       </c>
       <c r="C2">
-        <v>-0.01779894175609653</v>
+        <v>-0.03343494648969825</v>
       </c>
       <c r="D2">
-        <v>-0.04227573448743283</v>
+        <v>-0.0178900642352189</v>
       </c>
       <c r="E2">
-        <v>-0.1006070892862395</v>
+        <v>-0.03968463137686731</v>
       </c>
       <c r="F2">
-        <v>0.1086830735714092</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.1379764163003822</v>
+      </c>
+      <c r="G2">
+        <v>-0.06298789728175544</v>
+      </c>
+      <c r="H2">
+        <v>0.04345168102723861</v>
+      </c>
+      <c r="I2">
+        <v>0.06920127891404193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.2119314885454385</v>
+        <v>-0.1586697684665932</v>
       </c>
       <c r="C3">
-        <v>-0.1547656250904792</v>
+        <v>-0.1007841038970302</v>
       </c>
       <c r="D3">
-        <v>0.0436233294724838</v>
+        <v>0.005542591537579088</v>
       </c>
       <c r="E3">
-        <v>-0.1524567507413481</v>
+        <v>0.001733434699835729</v>
       </c>
       <c r="F3">
-        <v>0.3170335623276437</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.374892012103016</v>
+      </c>
+      <c r="G3">
+        <v>-0.2452522283278982</v>
+      </c>
+      <c r="H3">
+        <v>0.03939180358330333</v>
+      </c>
+      <c r="I3">
+        <v>0.3292407919218593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.09614073232484768</v>
+        <v>-0.07143260027377722</v>
       </c>
       <c r="C4">
-        <v>-0.04667586742220404</v>
+        <v>-0.04744858504965531</v>
       </c>
       <c r="D4">
-        <v>-0.03005931430129581</v>
+        <v>0.01545325268131265</v>
       </c>
       <c r="E4">
-        <v>-0.02986558781251366</v>
+        <v>-0.04146530848673452</v>
       </c>
       <c r="F4">
-        <v>0.07148248899035856</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.07987832231102722</v>
+      </c>
+      <c r="G4">
+        <v>-0.02712621844095056</v>
+      </c>
+      <c r="H4">
+        <v>0.04067130978382253</v>
+      </c>
+      <c r="I4">
+        <v>0.0421204947993998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.02056817080262241</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.0109660613133879</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.005025175950862075</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.004565132006487847</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.006863469109707201</v>
+      </c>
+      <c r="G6">
+        <v>0.005271163277048099</v>
+      </c>
+      <c r="H6">
+        <v>-0.01831515762565312</v>
+      </c>
+      <c r="I6">
+        <v>-0.01480944549988138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.04301978348052302</v>
+        <v>-0.03528909738063336</v>
       </c>
       <c r="C7">
-        <v>-0.01985597123553453</v>
+        <v>-0.01725465074542127</v>
       </c>
       <c r="D7">
-        <v>-0.03096814526971031</v>
+        <v>0.03616947819537701</v>
       </c>
       <c r="E7">
-        <v>-0.06312257122975402</v>
+        <v>-0.03013586044806518</v>
       </c>
       <c r="F7">
-        <v>0.03671435979953751</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.05484180861880825</v>
+      </c>
+      <c r="G7">
+        <v>-0.05052888163363737</v>
+      </c>
+      <c r="H7">
+        <v>-0.002141863298557631</v>
+      </c>
+      <c r="I7">
+        <v>0.006780375261608709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.04763014777141295</v>
+        <v>-0.02792055598475561</v>
       </c>
       <c r="C8">
-        <v>-0.0551351928358635</v>
+        <v>-0.04946952442800266</v>
       </c>
       <c r="D8">
-        <v>-0.008816683998716631</v>
+        <v>0.01287617326815981</v>
       </c>
       <c r="E8">
-        <v>-0.02102936167673351</v>
+        <v>-0.02195507214787477</v>
       </c>
       <c r="F8">
-        <v>0.06967524525675879</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.07304591097703349</v>
+      </c>
+      <c r="G8">
+        <v>-0.04260808854654748</v>
+      </c>
+      <c r="H8">
+        <v>0.03487099247629431</v>
+      </c>
+      <c r="I8">
+        <v>0.04959777285482069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.08213845247105726</v>
+        <v>-0.06068860885219102</v>
       </c>
       <c r="C9">
-        <v>-0.03920825636148467</v>
+        <v>-0.04285578082627697</v>
       </c>
       <c r="D9">
-        <v>-0.03848816836936775</v>
+        <v>0.01926987287088009</v>
       </c>
       <c r="E9">
-        <v>-0.01029439314498863</v>
+        <v>-0.0361854572880431</v>
       </c>
       <c r="F9">
-        <v>0.07011197736763611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.08089253069514259</v>
+      </c>
+      <c r="G9">
+        <v>-0.02728510128090023</v>
+      </c>
+      <c r="H9">
+        <v>0.03977367077280815</v>
+      </c>
+      <c r="I9">
+        <v>0.01763038175400189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.01816282547964986</v>
+        <v>-0.03700812458843263</v>
       </c>
       <c r="C10">
-        <v>0.1637324173005711</v>
+        <v>0.1608261390147318</v>
       </c>
       <c r="D10">
-        <v>0.02630799458670539</v>
+        <v>-0.0124169162711508</v>
       </c>
       <c r="E10">
-        <v>-0.06304403617831941</v>
+        <v>0.03903807280418002</v>
       </c>
       <c r="F10">
-        <v>0.03527285928318855</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.06538113423357397</v>
+      </c>
+      <c r="G10">
+        <v>-0.001367362379791281</v>
+      </c>
+      <c r="H10">
+        <v>0.03066793938272062</v>
+      </c>
+      <c r="I10">
+        <v>0.09966004032507429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05856264745781274</v>
+        <v>-0.04909039323741837</v>
       </c>
       <c r="C11">
-        <v>-0.01377709064591902</v>
+        <v>-0.03211867340111138</v>
       </c>
       <c r="D11">
-        <v>0.004060679777393427</v>
+        <v>-0.005571030418548713</v>
       </c>
       <c r="E11">
-        <v>-0.03331721556063603</v>
+        <v>-0.01086366119436203</v>
       </c>
       <c r="F11">
-        <v>0.03148641831350932</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03928547372756743</v>
+      </c>
+      <c r="G11">
+        <v>-0.002951850885938737</v>
+      </c>
+      <c r="H11">
+        <v>0.01409288453674689</v>
+      </c>
+      <c r="I11">
+        <v>-0.0031749325362976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04524159267209795</v>
+        <v>-0.04435056740397943</v>
       </c>
       <c r="C12">
-        <v>-0.01727112706777878</v>
+        <v>-0.02864897248899856</v>
       </c>
       <c r="D12">
-        <v>0.001457105243754078</v>
+        <v>0.005713043629544128</v>
       </c>
       <c r="E12">
-        <v>-0.01106243674343452</v>
+        <v>-0.01202713507402237</v>
       </c>
       <c r="F12">
-        <v>0.02667099494753824</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.0148264947141382</v>
+      </c>
+      <c r="G12">
+        <v>-0.00649435332825487</v>
+      </c>
+      <c r="H12">
+        <v>0.002613281208475227</v>
+      </c>
+      <c r="I12">
+        <v>-0.00325750108933372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06379174403301892</v>
+        <v>-0.04330872198922678</v>
       </c>
       <c r="C13">
-        <v>-0.02848891601345053</v>
+        <v>-0.02589194273126366</v>
       </c>
       <c r="D13">
-        <v>0.004506964759055115</v>
+        <v>-0.01504913934988222</v>
       </c>
       <c r="E13">
-        <v>-0.07425719706564672</v>
+        <v>-0.009588267377239537</v>
       </c>
       <c r="F13">
-        <v>0.08480867597532141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.1040481722534603</v>
+      </c>
+      <c r="G13">
+        <v>-0.04176429636095784</v>
+      </c>
+      <c r="H13">
+        <v>0.02165796875452835</v>
+      </c>
+      <c r="I13">
+        <v>0.03220441562705596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03424200528631097</v>
+        <v>-0.02702977827971134</v>
       </c>
       <c r="C14">
-        <v>-0.02467081312542699</v>
+        <v>-0.02055477148197125</v>
       </c>
       <c r="D14">
-        <v>-0.02761304666421469</v>
+        <v>0.006430411595460522</v>
       </c>
       <c r="E14">
-        <v>-0.03203255691540019</v>
+        <v>-0.02790331029401438</v>
       </c>
       <c r="F14">
-        <v>0.01518842877080262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03805580806637612</v>
+      </c>
+      <c r="G14">
+        <v>-0.05844229927938996</v>
+      </c>
+      <c r="H14">
+        <v>0.01500677469678858</v>
+      </c>
+      <c r="I14">
+        <v>0.01282050264910035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.04800612465612181</v>
+        <v>-0.04230922444289015</v>
       </c>
       <c r="C16">
-        <v>-0.02367072285325365</v>
+        <v>-0.03632563603421447</v>
       </c>
       <c r="D16">
-        <v>0.0065815827376682</v>
+        <v>-7.221251182842314e-05</v>
       </c>
       <c r="E16">
-        <v>-0.02149234248164046</v>
+        <v>-0.009967295529346337</v>
       </c>
       <c r="F16">
-        <v>0.0278505030437279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.03549704632877274</v>
+      </c>
+      <c r="G16">
+        <v>-0.005418927875543595</v>
+      </c>
+      <c r="H16">
+        <v>0.002741546057799611</v>
+      </c>
+      <c r="I16">
+        <v>0.003706374533598628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.05645654212482164</v>
+        <v>-0.04865410463282347</v>
       </c>
       <c r="C19">
-        <v>-0.04902074243487219</v>
+        <v>-0.04279862283720352</v>
       </c>
       <c r="D19">
-        <v>0.001602294201770999</v>
+        <v>-0.001771379384055481</v>
       </c>
       <c r="E19">
-        <v>-0.06008628873355543</v>
+        <v>-0.02291868169958987</v>
       </c>
       <c r="F19">
-        <v>0.06392462167354643</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.08673737430961602</v>
+      </c>
+      <c r="G19">
+        <v>-0.06472711427569598</v>
+      </c>
+      <c r="H19">
+        <v>0.006586107296807579</v>
+      </c>
+      <c r="I19">
+        <v>0.05783203237687027</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.03783202918148613</v>
+        <v>-0.01895592685537655</v>
       </c>
       <c r="C20">
-        <v>-0.03954968365467683</v>
+        <v>-0.02884913826451512</v>
       </c>
       <c r="D20">
-        <v>-0.01592442315719734</v>
+        <v>0.006348053903437833</v>
       </c>
       <c r="E20">
-        <v>-0.03433084816608743</v>
+        <v>-0.02276546025412741</v>
       </c>
       <c r="F20">
-        <v>0.06009623239419407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.06605424068944971</v>
+      </c>
+      <c r="G20">
+        <v>-0.06337103693383439</v>
+      </c>
+      <c r="H20">
+        <v>0.003531868783776664</v>
+      </c>
+      <c r="I20">
+        <v>0.05054394821826319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03553148807722802</v>
+        <v>-0.03135036810830959</v>
       </c>
       <c r="C21">
-        <v>-0.03217247717563337</v>
+        <v>-0.02925378167653522</v>
       </c>
       <c r="D21">
-        <v>-0.006834580396967368</v>
+        <v>0.01281404605928143</v>
       </c>
       <c r="E21">
-        <v>-0.08240018658703391</v>
+        <v>-0.008372768887720478</v>
       </c>
       <c r="F21">
-        <v>0.08147806844808536</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.08231797520880112</v>
+      </c>
+      <c r="G21">
+        <v>-0.03121820999901438</v>
+      </c>
+      <c r="H21">
+        <v>0.04458806761031522</v>
+      </c>
+      <c r="I21">
+        <v>-0.01353018999414627</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.05123810461466483</v>
+        <v>-0.04167877535477172</v>
       </c>
       <c r="C24">
-        <v>-0.02119565026924612</v>
+        <v>-0.02943726924299496</v>
       </c>
       <c r="D24">
-        <v>0.001419763902174636</v>
+        <v>0.0004750746095103524</v>
       </c>
       <c r="E24">
-        <v>-0.02368236537565272</v>
+        <v>-0.01191011613742989</v>
       </c>
       <c r="F24">
-        <v>0.03912570237221593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.03903328049220338</v>
+      </c>
+      <c r="G24">
+        <v>-0.003068248417543682</v>
+      </c>
+      <c r="H24">
+        <v>0.004746506396767942</v>
+      </c>
+      <c r="I24">
+        <v>-0.001794943290240453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.05162853433486578</v>
+        <v>-0.0480855915653547</v>
       </c>
       <c r="C25">
-        <v>-0.01265383447533567</v>
+        <v>-0.02653889273923681</v>
       </c>
       <c r="D25">
-        <v>0.00160077374179857</v>
+        <v>-0.0009609539165978496</v>
       </c>
       <c r="E25">
-        <v>-0.02636687453871952</v>
+        <v>-0.009927706867189188</v>
       </c>
       <c r="F25">
-        <v>0.03466265636694953</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04514234255116136</v>
+      </c>
+      <c r="G25">
+        <v>-0.001381101785546429</v>
+      </c>
+      <c r="H25">
+        <v>0.01225750150813362</v>
+      </c>
+      <c r="I25">
+        <v>-0.007814151703469611</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02227859921662958</v>
+        <v>-0.01761226358738782</v>
       </c>
       <c r="C26">
-        <v>-0.02958055836607211</v>
+        <v>-0.02595165796049008</v>
       </c>
       <c r="D26">
-        <v>-0.006291621064557083</v>
+        <v>-0.00378896192528437</v>
       </c>
       <c r="E26">
-        <v>-0.04622671728547</v>
+        <v>-0.002414017132010495</v>
       </c>
       <c r="F26">
-        <v>0.01171590271020104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.04506381410130296</v>
+      </c>
+      <c r="G26">
+        <v>-0.03940670519847853</v>
+      </c>
+      <c r="H26">
+        <v>0.01148469391658192</v>
+      </c>
+      <c r="I26">
+        <v>0.0002365518597700832</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1207646060801342</v>
+        <v>-0.07187926989162863</v>
       </c>
       <c r="C27">
-        <v>-0.02615983014559473</v>
+        <v>-0.02789943467956993</v>
       </c>
       <c r="D27">
-        <v>-0.01786572770599156</v>
+        <v>0.005288964790055962</v>
       </c>
       <c r="E27">
-        <v>-0.04112471832966146</v>
+        <v>-0.03576853924388698</v>
       </c>
       <c r="F27">
-        <v>0.07935358396753052</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.06674563514551404</v>
+      </c>
+      <c r="G27">
+        <v>-0.01729305643229013</v>
+      </c>
+      <c r="H27">
+        <v>0.02465937748127106</v>
+      </c>
+      <c r="I27">
+        <v>0.03238492041171657</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.01261541270144436</v>
+        <v>-0.0540236458662043</v>
       </c>
       <c r="C28">
-        <v>0.248959982430728</v>
+        <v>0.2421282565058644</v>
       </c>
       <c r="D28">
-        <v>0.03442115931583439</v>
+        <v>-0.007962807824449044</v>
       </c>
       <c r="E28">
-        <v>-0.04406112301313325</v>
+        <v>0.05714213784296834</v>
       </c>
       <c r="F28">
-        <v>0.01891784366351765</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.05425373108363757</v>
+      </c>
+      <c r="G28">
+        <v>0.002452520555561808</v>
+      </c>
+      <c r="H28">
+        <v>0.03398795204971707</v>
+      </c>
+      <c r="I28">
+        <v>0.1546722429016411</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.02586033798602645</v>
+        <v>-0.02313641773317448</v>
       </c>
       <c r="C29">
-        <v>-0.02464506614132444</v>
+        <v>-0.01782665491844927</v>
       </c>
       <c r="D29">
-        <v>-0.03252064661202008</v>
+        <v>0.009909213861308644</v>
       </c>
       <c r="E29">
-        <v>-0.02818693819919931</v>
+        <v>-0.02930442246308707</v>
       </c>
       <c r="F29">
-        <v>0.0211784435162036</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03410276372405768</v>
+      </c>
+      <c r="G29">
+        <v>-0.05924219588568788</v>
+      </c>
+      <c r="H29">
+        <v>0.02022710827605652</v>
+      </c>
+      <c r="I29">
+        <v>0.002869050044644711</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1155680488625438</v>
+        <v>-0.09031892087811458</v>
       </c>
       <c r="C30">
-        <v>-0.02158238923121572</v>
+        <v>-0.05072066364908503</v>
       </c>
       <c r="D30">
-        <v>-0.0314176175128876</v>
+        <v>-0.03709258799973813</v>
       </c>
       <c r="E30">
-        <v>-0.06973300587625274</v>
+        <v>-0.03395947464783308</v>
       </c>
       <c r="F30">
-        <v>0.08555350674592145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1046597150027466</v>
+      </c>
+      <c r="G30">
+        <v>-0.02140362084943838</v>
+      </c>
+      <c r="H30">
+        <v>-0.01184131674368831</v>
+      </c>
+      <c r="I30">
+        <v>-0.008078360386381099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06990223213861961</v>
+        <v>-0.06100421969010733</v>
       </c>
       <c r="C31">
-        <v>-0.01606904107771726</v>
+        <v>-0.02224064980058331</v>
       </c>
       <c r="D31">
-        <v>-0.0171379521570421</v>
+        <v>-0.009869903926666548</v>
       </c>
       <c r="E31">
-        <v>-0.03771886578020175</v>
+        <v>-0.0252310833525554</v>
       </c>
       <c r="F31">
-        <v>-0.05651683884837553</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.0001614862246636601</v>
+      </c>
+      <c r="G31">
+        <v>-0.04542520988157993</v>
+      </c>
+      <c r="H31">
+        <v>0.03345672378998328</v>
+      </c>
+      <c r="I31">
+        <v>0.01751252437655169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.07003552019112942</v>
+        <v>-0.04180932319307745</v>
       </c>
       <c r="C32">
-        <v>-0.03905207357272569</v>
+        <v>-0.04494579645037661</v>
       </c>
       <c r="D32">
-        <v>-0.02256371364442392</v>
+        <v>0.01624539346299607</v>
       </c>
       <c r="E32">
-        <v>-0.06102441835073962</v>
+        <v>-0.03666445552778903</v>
       </c>
       <c r="F32">
-        <v>0.08107525302569588</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.08728267650439635</v>
+      </c>
+      <c r="G32">
+        <v>-0.04158989845319142</v>
+      </c>
+      <c r="H32">
+        <v>0.02297918412879602</v>
+      </c>
+      <c r="I32">
+        <v>0.03711561566982439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.06987107856321356</v>
+        <v>-0.05628404960017204</v>
       </c>
       <c r="C33">
-        <v>-0.05145102973472662</v>
+        <v>-0.05339349562396785</v>
       </c>
       <c r="D33">
-        <v>-0.01536695343723785</v>
+        <v>-0.01803037206708264</v>
       </c>
       <c r="E33">
-        <v>-0.06615592448572238</v>
+        <v>-0.0168651958033641</v>
       </c>
       <c r="F33">
-        <v>0.04568949917250349</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.07607096463820011</v>
+      </c>
+      <c r="G33">
+        <v>-0.04508998989224549</v>
+      </c>
+      <c r="H33">
+        <v>0.03621366278447555</v>
+      </c>
+      <c r="I33">
+        <v>0.003014812393333152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.05016726560118527</v>
+        <v>-0.04370243473791686</v>
       </c>
       <c r="C34">
-        <v>-0.02057618762100125</v>
+        <v>-0.03499963328473042</v>
       </c>
       <c r="D34">
-        <v>-0.004056926581854759</v>
+        <v>0.005210137665298101</v>
       </c>
       <c r="E34">
-        <v>-0.01863997304115329</v>
+        <v>-0.01949815323125713</v>
       </c>
       <c r="F34">
-        <v>0.02270778273886164</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03343516825314498</v>
+      </c>
+      <c r="G34">
+        <v>-0.01008745489405491</v>
+      </c>
+      <c r="H34">
+        <v>0.00594560739601314</v>
+      </c>
+      <c r="I34">
+        <v>0.0004992325137854623</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01596010948967448</v>
+        <v>-0.01595925758550254</v>
       </c>
       <c r="C36">
-        <v>-0.001948159068707592</v>
+        <v>-0.003515192179573666</v>
       </c>
       <c r="D36">
-        <v>-0.01088488993794855</v>
+        <v>0.004751831073560197</v>
       </c>
       <c r="E36">
-        <v>-0.02341972981666837</v>
+        <v>-0.01033335063335025</v>
       </c>
       <c r="F36">
-        <v>0.009941918333471885</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.02605141726564175</v>
+      </c>
+      <c r="G36">
+        <v>-0.03823011749115434</v>
+      </c>
+      <c r="H36">
+        <v>0.01991775963776595</v>
+      </c>
+      <c r="I36">
+        <v>-0.006848191610459928</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.04840722698855899</v>
+        <v>-0.03407260649348759</v>
       </c>
       <c r="C38">
-        <v>-0.02048813876097536</v>
+        <v>-0.01541304420067405</v>
       </c>
       <c r="D38">
-        <v>-0.0217207006617945</v>
+        <v>0.003807352576144017</v>
       </c>
       <c r="E38">
-        <v>-0.01011262973600117</v>
+        <v>-0.01291898384859471</v>
       </c>
       <c r="F38">
-        <v>0.02671660387559005</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.04835290650421879</v>
+      </c>
+      <c r="G38">
+        <v>-0.02472831397601866</v>
+      </c>
+      <c r="H38">
+        <v>0.03181313993440182</v>
+      </c>
+      <c r="I38">
+        <v>-0.01331175015583048</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.07180123381539444</v>
+        <v>-0.05373667539906359</v>
       </c>
       <c r="C39">
-        <v>-0.02285511712822027</v>
+        <v>-0.04592006172688728</v>
       </c>
       <c r="D39">
-        <v>-0.006126299214190146</v>
+        <v>-0.004273704775273529</v>
       </c>
       <c r="E39">
-        <v>-0.03778180661189494</v>
+        <v>-0.01904306882914594</v>
       </c>
       <c r="F39">
-        <v>0.02291857845215128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.0541254580736943</v>
+      </c>
+      <c r="G39">
+        <v>-0.008789532293297044</v>
+      </c>
+      <c r="H39">
+        <v>0.01932339352478264</v>
+      </c>
+      <c r="I39">
+        <v>-0.02450710575342338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07821965832328352</v>
+        <v>-0.05450538078181841</v>
       </c>
       <c r="C40">
-        <v>-0.04194728382307297</v>
+        <v>-0.04253655245939396</v>
       </c>
       <c r="D40">
-        <v>-0.01088302036024589</v>
+        <v>-0.01930423498312681</v>
       </c>
       <c r="E40">
-        <v>-0.05387733641265045</v>
+        <v>-0.02606348389840057</v>
       </c>
       <c r="F40">
-        <v>0.09971195506722563</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.09423957771261815</v>
+      </c>
+      <c r="G40">
+        <v>-0.04770305646984369</v>
+      </c>
+      <c r="H40">
+        <v>0.02035350063585028</v>
+      </c>
+      <c r="I40">
+        <v>0.05431852967779923</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.005536942689660699</v>
+        <v>-0.003712150811787885</v>
       </c>
       <c r="C41">
-        <v>-0.026889129479749</v>
+        <v>-0.01214056219599237</v>
       </c>
       <c r="D41">
-        <v>-0.03074884809076634</v>
+        <v>0.000287441899958671</v>
       </c>
       <c r="E41">
-        <v>-0.02610567600766687</v>
+        <v>-0.01190635399740628</v>
       </c>
       <c r="F41">
-        <v>-0.006805255969082243</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.01215328629928918</v>
+      </c>
+      <c r="G41">
+        <v>-0.0395570386436385</v>
+      </c>
+      <c r="H41">
+        <v>0.03523702996518546</v>
+      </c>
+      <c r="I41">
+        <v>0.02623079349422146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.1463173031006957</v>
+        <v>-0.2252740290493909</v>
       </c>
       <c r="C42">
-        <v>-0.2112452173179835</v>
+        <v>-0.2831754503005205</v>
       </c>
       <c r="D42">
-        <v>0.929550590919352</v>
+        <v>-0.0545025818155175</v>
       </c>
       <c r="E42">
-        <v>0.01294929146701684</v>
+        <v>0.8990309462281413</v>
       </c>
       <c r="F42">
-        <v>-0.1100015574168325</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1618021303567669</v>
+      </c>
+      <c r="G42">
+        <v>0.007390712845240026</v>
+      </c>
+      <c r="H42">
+        <v>-0.003429117999594691</v>
+      </c>
+      <c r="I42">
+        <v>0.06481065995521434</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.009068392819255094</v>
+        <v>-0.008321986410393212</v>
       </c>
       <c r="C43">
-        <v>-0.02490646972923542</v>
+        <v>-0.01357110953465308</v>
       </c>
       <c r="D43">
-        <v>-0.02172107232630921</v>
+        <v>-0.002473571332640682</v>
       </c>
       <c r="E43">
-        <v>-0.0347847892000675</v>
+        <v>-0.01202239876495852</v>
       </c>
       <c r="F43">
-        <v>0.01417902611370121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.02826589613408324</v>
+      </c>
+      <c r="G43">
+        <v>-0.03325358657764305</v>
+      </c>
+      <c r="H43">
+        <v>0.02153696927633274</v>
+      </c>
+      <c r="I43">
+        <v>0.01981277299004421</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.04110954975193817</v>
+        <v>-0.0284512212097631</v>
       </c>
       <c r="C44">
-        <v>-0.04870638964491823</v>
+        <v>-0.03915279185985379</v>
       </c>
       <c r="D44">
-        <v>-0.01514504946607048</v>
+        <v>0.00285069809740545</v>
       </c>
       <c r="E44">
-        <v>-0.1050716975280574</v>
+        <v>-0.01365420212093373</v>
       </c>
       <c r="F44">
-        <v>0.08728414920051865</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.1202473664508751</v>
+      </c>
+      <c r="G44">
+        <v>-0.09649860698291454</v>
+      </c>
+      <c r="H44">
+        <v>0.05155310471557523</v>
+      </c>
+      <c r="I44">
+        <v>0.05400228037149311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.02937168007277754</v>
+        <v>-0.02542236869810003</v>
       </c>
       <c r="C46">
-        <v>-0.03019973162427098</v>
+        <v>-0.03444069827808817</v>
       </c>
       <c r="D46">
-        <v>-0.03255264827336903</v>
+        <v>-0.002136868469471741</v>
       </c>
       <c r="E46">
-        <v>-0.04075874754148583</v>
+        <v>-0.03237519958400966</v>
       </c>
       <c r="F46">
-        <v>0.008756458382490296</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04727529572616974</v>
+      </c>
+      <c r="G46">
+        <v>-0.06375395687161935</v>
+      </c>
+      <c r="H46">
+        <v>0.0153658665370903</v>
+      </c>
+      <c r="I46">
+        <v>0.005538491233248601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09372395141647594</v>
+        <v>-0.08746534674777696</v>
       </c>
       <c r="C47">
-        <v>-0.01084786195617749</v>
+        <v>-0.0193243549762608</v>
       </c>
       <c r="D47">
-        <v>-0.02053176468972319</v>
+        <v>-0.00454185081654363</v>
       </c>
       <c r="E47">
-        <v>-0.00404629766478247</v>
+        <v>-0.02880377763178558</v>
       </c>
       <c r="F47">
-        <v>-0.02928554629380607</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01066256153094327</v>
+      </c>
+      <c r="G47">
+        <v>-0.05884861658463592</v>
+      </c>
+      <c r="H47">
+        <v>0.0318014322612457</v>
+      </c>
+      <c r="I47">
+        <v>0.03067105759015564</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.02071294673755945</v>
+        <v>-0.02040378337407938</v>
       </c>
       <c r="C48">
-        <v>-0.02504994434731358</v>
+        <v>-0.01897072094742494</v>
       </c>
       <c r="D48">
-        <v>-0.01746770479515153</v>
+        <v>0.001654598341375722</v>
       </c>
       <c r="E48">
-        <v>-0.03093826699442683</v>
+        <v>-0.01524044748486331</v>
       </c>
       <c r="F48">
-        <v>0.01318788665633626</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02738294771186151</v>
+      </c>
+      <c r="G48">
+        <v>-0.02672064245186669</v>
+      </c>
+      <c r="H48">
+        <v>0.01570547593206946</v>
+      </c>
+      <c r="I48">
+        <v>0.01142360708505758</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.09655252438725216</v>
+        <v>-0.08778652956721165</v>
       </c>
       <c r="C50">
-        <v>-0.03162155307675683</v>
+        <v>-0.04144795828946727</v>
       </c>
       <c r="D50">
-        <v>-0.02044222841808271</v>
+        <v>0.01168260656142772</v>
       </c>
       <c r="E50">
-        <v>-0.0191632134933301</v>
+        <v>-0.0275247776156037</v>
       </c>
       <c r="F50">
-        <v>-0.03560938403637072</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.005510625441793913</v>
+      </c>
+      <c r="G50">
+        <v>-0.04175826300435478</v>
+      </c>
+      <c r="H50">
+        <v>-0.005683154637333906</v>
+      </c>
+      <c r="I50">
+        <v>-0.004790826705542215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05422139459647851</v>
+        <v>-0.03892971508019414</v>
       </c>
       <c r="C51">
-        <v>0.01201554784969332</v>
+        <v>0.003793407789865449</v>
       </c>
       <c r="D51">
-        <v>-0.003226065951221783</v>
+        <v>-0.011546097165774</v>
       </c>
       <c r="E51">
-        <v>-0.09755515011399453</v>
+        <v>-0.01019152812592624</v>
       </c>
       <c r="F51">
-        <v>0.03074996239335557</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.09710414261894727</v>
+      </c>
+      <c r="G51">
+        <v>-0.06438049821420827</v>
+      </c>
+      <c r="H51">
+        <v>0.05401943546409822</v>
+      </c>
+      <c r="I51">
+        <v>0.02553580767333166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.142564836275074</v>
+        <v>-0.1246146946413853</v>
       </c>
       <c r="C53">
-        <v>-0.02038427990276373</v>
+        <v>-0.0389063522980731</v>
       </c>
       <c r="D53">
-        <v>-0.04847025444535007</v>
+        <v>-0.004740906156023143</v>
       </c>
       <c r="E53">
-        <v>0.01700289465768082</v>
+        <v>-0.05859015880484042</v>
       </c>
       <c r="F53">
-        <v>-0.05392881901590437</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.04605758989761813</v>
+      </c>
+      <c r="G53">
+        <v>-0.005012497817728731</v>
+      </c>
+      <c r="H53">
+        <v>0.02944314143388784</v>
+      </c>
+      <c r="I53">
+        <v>0.04139984063224405</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.0258958581886435</v>
+        <v>-0.02452413469837999</v>
       </c>
       <c r="C54">
-        <v>-0.008975135823944227</v>
+        <v>-0.003780440681691779</v>
       </c>
       <c r="D54">
-        <v>-0.03082496541475674</v>
+        <v>0.005747728397986583</v>
       </c>
       <c r="E54">
-        <v>-0.03752087597894502</v>
+        <v>-0.02685642840549282</v>
       </c>
       <c r="F54">
-        <v>0.01729415608451601</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.03471565244610447</v>
+      </c>
+      <c r="G54">
+        <v>-0.05713086793375739</v>
+      </c>
+      <c r="H54">
+        <v>0.03893078884131811</v>
+      </c>
+      <c r="I54">
+        <v>0.02396164656388701</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1047574497816239</v>
+        <v>-0.09843972084228653</v>
       </c>
       <c r="C55">
-        <v>-0.001231671565507245</v>
+        <v>-0.03380978922237639</v>
       </c>
       <c r="D55">
-        <v>-0.04004900953860777</v>
+        <v>0.01246617380772343</v>
       </c>
       <c r="E55">
-        <v>0.03679852008713416</v>
+        <v>-0.03811162420665273</v>
       </c>
       <c r="F55">
-        <v>0.004840069569362664</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.03164299904930179</v>
+      </c>
+      <c r="G55">
+        <v>-0.01519485825448261</v>
+      </c>
+      <c r="H55">
+        <v>-0.007364268177702689</v>
+      </c>
+      <c r="I55">
+        <v>0.01367765447940517</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1768182292814184</v>
+        <v>-0.1642128315366303</v>
       </c>
       <c r="C56">
-        <v>0.01843086523243021</v>
+        <v>-0.02038655424569841</v>
       </c>
       <c r="D56">
-        <v>-0.08700035207562788</v>
+        <v>0.0005980442743959275</v>
       </c>
       <c r="E56">
-        <v>0.08521096218130454</v>
+        <v>-0.08899414918207442</v>
       </c>
       <c r="F56">
-        <v>-0.07061254246621428</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.09141619955908029</v>
+      </c>
+      <c r="G56">
+        <v>0.0436765295419423</v>
+      </c>
+      <c r="H56">
+        <v>-0.009728248757913638</v>
+      </c>
+      <c r="I56">
+        <v>0.03972191466029188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.08335003225650717</v>
+        <v>-0.06491422976244782</v>
       </c>
       <c r="C57">
-        <v>-0.0246268200388304</v>
+        <v>-0.03045448063449968</v>
       </c>
       <c r="D57">
-        <v>-0.0180287641081478</v>
+        <v>-0.01772587740196605</v>
       </c>
       <c r="E57">
-        <v>-0.05665989830107929</v>
+        <v>-0.008650553459289743</v>
       </c>
       <c r="F57">
-        <v>0.01244803239029077</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.06437464995035305</v>
+      </c>
+      <c r="G57">
+        <v>-0.03795240353910505</v>
+      </c>
+      <c r="H57">
+        <v>0.01197608706024178</v>
+      </c>
+      <c r="I57">
+        <v>0.006979563071787698</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.204130143786657</v>
+        <v>-0.2078145876228303</v>
       </c>
       <c r="C58">
-        <v>-0.02307005642469483</v>
+        <v>-0.102704678068467</v>
       </c>
       <c r="D58">
-        <v>-0.00265040115480725</v>
+        <v>-0.09019987607918127</v>
       </c>
       <c r="E58">
-        <v>-0.1006996482887298</v>
+        <v>0.01449114260568774</v>
       </c>
       <c r="F58">
-        <v>0.0968272761511304</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2635829983479858</v>
+      </c>
+      <c r="G58">
+        <v>-0.357892612512371</v>
+      </c>
+      <c r="H58">
+        <v>-0.3060647399681788</v>
+      </c>
+      <c r="I58">
+        <v>-0.3477870316039096</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.01735403138583858</v>
+        <v>-0.05302419833220207</v>
       </c>
       <c r="C59">
-        <v>0.1986220566864902</v>
+        <v>0.1993509266250832</v>
       </c>
       <c r="D59">
-        <v>0.002404407477497461</v>
+        <v>-0.02173904922424522</v>
       </c>
       <c r="E59">
-        <v>-0.04435672933134618</v>
+        <v>0.01987924866564537</v>
       </c>
       <c r="F59">
-        <v>0.03504490781314143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.06796950103305863</v>
+      </c>
+      <c r="G59">
+        <v>0.02062818726405579</v>
+      </c>
+      <c r="H59">
+        <v>0.01349487996631366</v>
+      </c>
+      <c r="I59">
+        <v>0.05247887706517222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1885033684583226</v>
+        <v>-0.1907710702727194</v>
       </c>
       <c r="C60">
-        <v>0.09769595603072001</v>
+        <v>0.04786362853721821</v>
       </c>
       <c r="D60">
-        <v>-0.008092871251853614</v>
+        <v>-0.05205399625716799</v>
       </c>
       <c r="E60">
-        <v>-0.1258811677759405</v>
+        <v>-0.0105278003569271</v>
       </c>
       <c r="F60">
-        <v>0.1226611961676375</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1984169529076234</v>
+      </c>
+      <c r="G60">
+        <v>0.2807471703905952</v>
+      </c>
+      <c r="H60">
+        <v>0.008151834095248505</v>
+      </c>
+      <c r="I60">
+        <v>-0.09384599117783003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.04232013488076943</v>
+        <v>-0.0380151615319631</v>
       </c>
       <c r="C61">
-        <v>-0.0112906538542522</v>
+        <v>-0.02916492847784923</v>
       </c>
       <c r="D61">
-        <v>-0.002477190014397018</v>
+        <v>0.0007789269993481358</v>
       </c>
       <c r="E61">
-        <v>-0.02599849756299961</v>
+        <v>-0.008649905542069769</v>
       </c>
       <c r="F61">
-        <v>0.02995699382814009</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.04003091357189956</v>
+      </c>
+      <c r="G61">
+        <v>0.0008609958202310984</v>
+      </c>
+      <c r="H61">
+        <v>0.01852951845121529</v>
+      </c>
+      <c r="I61">
+        <v>-0.03838868508148243</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.04457088617034245</v>
+        <v>-0.03105532168451254</v>
       </c>
       <c r="C63">
-        <v>-0.01425000777232397</v>
+        <v>-0.02218348690538356</v>
       </c>
       <c r="D63">
-        <v>-0.01497821736033265</v>
+        <v>-0.001171975576434805</v>
       </c>
       <c r="E63">
-        <v>-0.04129851666349234</v>
+        <v>-0.01570809609638213</v>
       </c>
       <c r="F63">
-        <v>0.01905400880942984</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02857295601798165</v>
+      </c>
+      <c r="G63">
+        <v>-0.05290206171738726</v>
+      </c>
+      <c r="H63">
+        <v>0.001750814160414638</v>
+      </c>
+      <c r="I63">
+        <v>0.03624780876892297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.07825425008495326</v>
+        <v>-0.06082780491424722</v>
       </c>
       <c r="C64">
-        <v>-0.048908775327791</v>
+        <v>-0.04301208831833857</v>
       </c>
       <c r="D64">
-        <v>-0.05812335578920085</v>
+        <v>0.01531154955271097</v>
       </c>
       <c r="E64">
-        <v>0.004702622656309034</v>
+        <v>-0.04581713063123284</v>
       </c>
       <c r="F64">
-        <v>0.04852579923062571</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.04513930513924436</v>
+      </c>
+      <c r="G64">
+        <v>-0.01105900434514987</v>
+      </c>
+      <c r="H64">
+        <v>0.06745653939590875</v>
+      </c>
+      <c r="I64">
+        <v>0.0311022093344624</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.02249959600838703</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.01104677242280189</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.005745879963625752</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.005438497095027495</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.003541845377480219</v>
+      </c>
+      <c r="G65">
+        <v>0.009230648768837349</v>
+      </c>
+      <c r="H65">
+        <v>-0.0174517757060276</v>
+      </c>
+      <c r="I65">
+        <v>-0.01659726824000166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.08360361160369305</v>
+        <v>-0.06706961355505939</v>
       </c>
       <c r="C66">
-        <v>-0.03518918539219654</v>
+        <v>-0.05559933880694743</v>
       </c>
       <c r="D66">
-        <v>-0.03522965867988746</v>
+        <v>-0.01225901938949129</v>
       </c>
       <c r="E66">
-        <v>-0.05653862753840187</v>
+        <v>-0.04820943274815508</v>
       </c>
       <c r="F66">
-        <v>0.06154282511928144</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06857484875312292</v>
+      </c>
+      <c r="G66">
+        <v>-0.001904637721427124</v>
+      </c>
+      <c r="H66">
+        <v>0.01180706085595235</v>
+      </c>
+      <c r="I66">
+        <v>-0.01850558787991565</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.05735029222217448</v>
+        <v>-0.04709330374714411</v>
       </c>
       <c r="C67">
-        <v>0.009110309826489879</v>
+        <v>0.003320310232857791</v>
       </c>
       <c r="D67">
-        <v>-0.01230513527887099</v>
+        <v>-0.002014466095277002</v>
       </c>
       <c r="E67">
-        <v>-0.01263054569238966</v>
+        <v>-0.009193276118040656</v>
       </c>
       <c r="F67">
-        <v>0.01453511638868593</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03613033673166571</v>
+      </c>
+      <c r="G67">
+        <v>-0.01012498767591547</v>
+      </c>
+      <c r="H67">
+        <v>0.04421713953377436</v>
+      </c>
+      <c r="I67">
+        <v>-0.03590747531564419</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.02931371300025974</v>
+        <v>-0.06366641310116611</v>
       </c>
       <c r="C68">
-        <v>0.2460161302395756</v>
+        <v>0.2327357869611136</v>
       </c>
       <c r="D68">
-        <v>0.01789660546734122</v>
+        <v>-0.02340830267353514</v>
       </c>
       <c r="E68">
-        <v>-0.04195685758867865</v>
+        <v>0.03700977940975788</v>
       </c>
       <c r="F68">
-        <v>0.01914239341681332</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.05208870607705419</v>
+      </c>
+      <c r="G68">
+        <v>0.02523092915913468</v>
+      </c>
+      <c r="H68">
+        <v>-0.006842677563206266</v>
+      </c>
+      <c r="I68">
+        <v>0.1244431332399814</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07256109713884452</v>
+        <v>-0.07276716314861865</v>
       </c>
       <c r="C69">
-        <v>-0.01110914332246818</v>
+        <v>-0.01886370480242715</v>
       </c>
       <c r="D69">
-        <v>-0.02459934778651591</v>
+        <v>-0.005604586701986013</v>
       </c>
       <c r="E69">
-        <v>-0.007346589450603249</v>
+        <v>-0.03223462045025452</v>
       </c>
       <c r="F69">
-        <v>-0.02495397237199647</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.00126077498554229</v>
+      </c>
+      <c r="G69">
+        <v>-0.03683418137276738</v>
+      </c>
+      <c r="H69">
+        <v>0.02203930187744743</v>
+      </c>
+      <c r="I69">
+        <v>0.00451184594894492</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.02015121181906009</v>
+        <v>-0.05980791733219753</v>
       </c>
       <c r="C71">
-        <v>0.2794196545394846</v>
+        <v>0.2490317735440898</v>
       </c>
       <c r="D71">
-        <v>0.0322341950271661</v>
+        <v>-0.02739037475821072</v>
       </c>
       <c r="E71">
-        <v>-0.09808445007588722</v>
+        <v>0.06410479685241946</v>
       </c>
       <c r="F71">
-        <v>0.02198693582008049</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.07194273815601239</v>
+      </c>
+      <c r="G71">
+        <v>0.02078387669723795</v>
+      </c>
+      <c r="H71">
+        <v>0.02173786571120109</v>
+      </c>
+      <c r="I71">
+        <v>0.1078014419788583</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1290007884141558</v>
+        <v>-0.1247283627513361</v>
       </c>
       <c r="C72">
-        <v>0.01757373195910423</v>
+        <v>-0.03311539769787323</v>
       </c>
       <c r="D72">
-        <v>-0.04286078826816953</v>
+        <v>-0.005942676211720061</v>
       </c>
       <c r="E72">
-        <v>-0.04185251311538681</v>
+        <v>-0.06536995736687565</v>
       </c>
       <c r="F72">
-        <v>0.06967576329732994</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.08564022930563141</v>
+      </c>
+      <c r="G72">
+        <v>0.009647357282519095</v>
+      </c>
+      <c r="H72">
+        <v>-0.02934043186541486</v>
+      </c>
+      <c r="I72">
+        <v>-0.112823045810144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2879476961311586</v>
+        <v>-0.2730752722901193</v>
       </c>
       <c r="C73">
-        <v>0.1909894949999906</v>
+        <v>0.06919456344891087</v>
       </c>
       <c r="D73">
-        <v>0.05562322733074861</v>
+        <v>-0.09316988965463756</v>
       </c>
       <c r="E73">
-        <v>-0.2049353130708292</v>
+        <v>0.03954967675577115</v>
       </c>
       <c r="F73">
-        <v>0.252675677761364</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.3077052389694804</v>
+      </c>
+      <c r="G73">
+        <v>0.4912946558434625</v>
+      </c>
+      <c r="H73">
+        <v>-0.04339672536987881</v>
+      </c>
+      <c r="I73">
+        <v>-0.2929913150212813</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1604342258796628</v>
+        <v>-0.1505181755289682</v>
       </c>
       <c r="C74">
-        <v>-0.008430314850099612</v>
+        <v>-0.03433348859218607</v>
       </c>
       <c r="D74">
-        <v>-0.03986742647201093</v>
+        <v>-0.0112229008995226</v>
       </c>
       <c r="E74">
-        <v>0.01554014085781138</v>
+        <v>-0.05341922329903</v>
       </c>
       <c r="F74">
-        <v>-0.04723485660590609</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.06546788355989105</v>
+      </c>
+      <c r="G74">
+        <v>0.02293828417017306</v>
+      </c>
+      <c r="H74">
+        <v>-0.01041808933327194</v>
+      </c>
+      <c r="I74">
+        <v>0.02716029019350218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2403268639009473</v>
+        <v>-0.2427841831057824</v>
       </c>
       <c r="C75">
-        <v>-0.002121146316285472</v>
+        <v>-0.02705437582288472</v>
       </c>
       <c r="D75">
-        <v>-0.07965556179397003</v>
+        <v>-0.02639612999827057</v>
       </c>
       <c r="E75">
-        <v>0.05966122960333264</v>
+        <v>-0.1178358492458844</v>
       </c>
       <c r="F75">
-        <v>-0.134581869811031</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1499765983574592</v>
+      </c>
+      <c r="G75">
+        <v>0.02252275981028707</v>
+      </c>
+      <c r="H75">
+        <v>0.01020928182343953</v>
+      </c>
+      <c r="I75">
+        <v>0.08576572941483003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2472768479092702</v>
+        <v>-0.2621602533666081</v>
       </c>
       <c r="C76">
-        <v>0.02916184688582409</v>
+        <v>-0.01491669135656304</v>
       </c>
       <c r="D76">
-        <v>-0.1088559307103932</v>
+        <v>0.01326320699264416</v>
       </c>
       <c r="E76">
-        <v>0.1042820905752348</v>
+        <v>-0.1409277692224162</v>
       </c>
       <c r="F76">
-        <v>-0.08747732242893023</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1807497771844654</v>
+      </c>
+      <c r="G76">
+        <v>0.04670980565535678</v>
+      </c>
+      <c r="H76">
+        <v>-0.05145196285431432</v>
+      </c>
+      <c r="I76">
+        <v>0.04258805318646908</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1359842361968829</v>
+        <v>-0.1216022886343458</v>
       </c>
       <c r="C77">
-        <v>-0.05991564501870662</v>
+        <v>-0.07594672352342328</v>
       </c>
       <c r="D77">
-        <v>0.03173675529329484</v>
+        <v>-0.006143320924284519</v>
       </c>
       <c r="E77">
-        <v>-0.07623211150722912</v>
+        <v>0.0293772183821552</v>
       </c>
       <c r="F77">
-        <v>0.1472823127752259</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.160936040056579</v>
+      </c>
+      <c r="G77">
+        <v>-0.1770482323694752</v>
+      </c>
+      <c r="H77">
+        <v>-0.04256503814306246</v>
+      </c>
+      <c r="I77">
+        <v>0.2902881984221555</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.08669936996960832</v>
+        <v>-0.07396780480536004</v>
       </c>
       <c r="C78">
-        <v>-0.04886179535289456</v>
+        <v>-0.07558418618957548</v>
       </c>
       <c r="D78">
-        <v>0.008362315043622379</v>
+        <v>0.006297225459139377</v>
       </c>
       <c r="E78">
-        <v>-0.0308652454113777</v>
+        <v>-0.01446924158059886</v>
       </c>
       <c r="F78">
-        <v>0.04810549868309074</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.07704941067014115</v>
+      </c>
+      <c r="G78">
+        <v>-0.02506420573100196</v>
+      </c>
+      <c r="H78">
+        <v>0.01775722075952135</v>
+      </c>
+      <c r="I78">
+        <v>0.03318070687647304</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.05211255615923933</v>
+        <v>-0.1359698694069122</v>
       </c>
       <c r="C80">
-        <v>0.03979649959903617</v>
+        <v>0.05710244484362281</v>
       </c>
       <c r="D80">
-        <v>0.06338171565820504</v>
+        <v>0.9735380054417665</v>
       </c>
       <c r="E80">
-        <v>0.7784282945605745</v>
+        <v>0.06454824362297312</v>
       </c>
       <c r="F80">
-        <v>0.5415920661260607</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.04965169261994912</v>
+      </c>
+      <c r="G80">
+        <v>0.0396218678312419</v>
+      </c>
+      <c r="H80">
+        <v>0.0412339704846847</v>
+      </c>
+      <c r="I80">
+        <v>-0.05660121045306505</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1666151366181589</v>
+        <v>-0.1790769117750172</v>
       </c>
       <c r="C81">
-        <v>0.01147688037857699</v>
+        <v>-0.005231883537053967</v>
       </c>
       <c r="D81">
-        <v>-0.05856872686688984</v>
+        <v>-0.005394577835587853</v>
       </c>
       <c r="E81">
-        <v>0.1046890556306019</v>
+        <v>-0.08839311438266405</v>
       </c>
       <c r="F81">
-        <v>-0.1479121804827747</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1600196066761603</v>
+      </c>
+      <c r="G81">
+        <v>0.004143479201917898</v>
+      </c>
+      <c r="H81">
+        <v>-0.03076271644892592</v>
+      </c>
+      <c r="I81">
+        <v>0.04442912456088341</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.09175746771360416</v>
+        <v>-0.06827970928297182</v>
       </c>
       <c r="C83">
-        <v>-0.07335227347329541</v>
+        <v>-0.05623605363665249</v>
       </c>
       <c r="D83">
-        <v>0.06791809166797166</v>
+        <v>-0.01265798360232095</v>
       </c>
       <c r="E83">
-        <v>-0.05495170363202754</v>
+        <v>0.03415192955679632</v>
       </c>
       <c r="F83">
-        <v>-0.01519279959874529</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.04675046612805168</v>
+      </c>
+      <c r="G83">
+        <v>-0.04627919765528517</v>
+      </c>
+      <c r="H83">
+        <v>0.05675799226000133</v>
+      </c>
+      <c r="I83">
+        <v>0.03952133819282968</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2377961305163981</v>
+        <v>-0.2498838258347031</v>
       </c>
       <c r="C85">
-        <v>-0.05143440332193581</v>
+        <v>-0.05740399057106892</v>
       </c>
       <c r="D85">
-        <v>-0.06777111941636338</v>
+        <v>-0.004436907156795501</v>
       </c>
       <c r="E85">
-        <v>0.1163747265333826</v>
+        <v>-0.1138127504596903</v>
       </c>
       <c r="F85">
-        <v>-0.1125362139568132</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1844160256676042</v>
+      </c>
+      <c r="G85">
+        <v>-0.007415662475101839</v>
+      </c>
+      <c r="H85">
+        <v>-0.02381202811069058</v>
+      </c>
+      <c r="I85">
+        <v>0.06876136053436603</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.04255989440319864</v>
+        <v>-0.02639438322392892</v>
       </c>
       <c r="C86">
-        <v>-0.04532591524849817</v>
+        <v>-0.04980326691651416</v>
       </c>
       <c r="D86">
-        <v>-0.004739429095823412</v>
+        <v>-0.0004001486371159769</v>
       </c>
       <c r="E86">
-        <v>-0.04200886394811321</v>
+        <v>-0.01777033511486911</v>
       </c>
       <c r="F86">
-        <v>0.05779136609237519</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.08205774069030312</v>
+      </c>
+      <c r="G86">
+        <v>-0.06759277511466225</v>
+      </c>
+      <c r="H86">
+        <v>0.003593727817896443</v>
+      </c>
+      <c r="I86">
+        <v>0.02371021407840427</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02578710404588954</v>
+        <v>-0.03301987771955271</v>
       </c>
       <c r="C87">
-        <v>0.05254156492435667</v>
+        <v>0.00900786447802992</v>
       </c>
       <c r="D87">
-        <v>0.003276426861943037</v>
+        <v>-0.001969215988969639</v>
       </c>
       <c r="E87">
-        <v>-0.06192862864232145</v>
+        <v>0.0005469752563794155</v>
       </c>
       <c r="F87">
-        <v>0.08268259787699125</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.1056174387118615</v>
+      </c>
+      <c r="G87">
+        <v>-0.002887662198845025</v>
+      </c>
+      <c r="H87">
+        <v>-0.0133346670965865</v>
+      </c>
+      <c r="I87">
+        <v>-0.003696634256167076</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.03065246517888968</v>
+        <v>-0.03149850345273731</v>
       </c>
       <c r="C88">
-        <v>-0.02587861210672436</v>
+        <v>-0.0109470002069138</v>
       </c>
       <c r="D88">
-        <v>-0.0002039110211494255</v>
+        <v>0.008562332879538991</v>
       </c>
       <c r="E88">
-        <v>0.006074019769098786</v>
+        <v>-0.006901302909576353</v>
       </c>
       <c r="F88">
-        <v>-0.006629946292132538</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01136472716226093</v>
+      </c>
+      <c r="G88">
+        <v>-0.03736354583906478</v>
+      </c>
+      <c r="H88">
+        <v>0.04463593840751064</v>
+      </c>
+      <c r="I88">
+        <v>-0.01093490209865479</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.02012694520641275</v>
+        <v>-0.0947523939899278</v>
       </c>
       <c r="C89">
-        <v>0.3793648045426452</v>
+        <v>0.3851849912417835</v>
       </c>
       <c r="D89">
-        <v>0.09624006523452468</v>
+        <v>-0.05522611406131703</v>
       </c>
       <c r="E89">
-        <v>-0.05235180604881268</v>
+        <v>0.08469014284315504</v>
       </c>
       <c r="F89">
-        <v>-0.03862559082615178</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.03135807013330134</v>
+      </c>
+      <c r="G89">
+        <v>-0.04341817465768104</v>
+      </c>
+      <c r="H89">
+        <v>0.02891521462788809</v>
+      </c>
+      <c r="I89">
+        <v>0.2344435960137842</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.01213234212981853</v>
+        <v>-0.06019188596045302</v>
       </c>
       <c r="C90">
-        <v>0.2932856078509882</v>
+        <v>0.3175398953960494</v>
       </c>
       <c r="D90">
-        <v>0.04744308875123382</v>
+        <v>-0.02617212278671807</v>
       </c>
       <c r="E90">
-        <v>-0.02550583182911619</v>
+        <v>0.06767518153239116</v>
       </c>
       <c r="F90">
-        <v>0.0426014164136615</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.03332764360463405</v>
+      </c>
+      <c r="G90">
+        <v>0.001551291010399676</v>
+      </c>
+      <c r="H90">
+        <v>0.006921358782229812</v>
+      </c>
+      <c r="I90">
+        <v>0.1863025746484278</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2786725903789817</v>
+        <v>-0.2876594303307655</v>
       </c>
       <c r="C91">
-        <v>-0.03967655400858256</v>
+        <v>-0.05194035221085912</v>
       </c>
       <c r="D91">
-        <v>-0.08311803704723071</v>
+        <v>-0.01163206666693611</v>
       </c>
       <c r="E91">
-        <v>0.1913690409619524</v>
+        <v>-0.1099238764949506</v>
       </c>
       <c r="F91">
-        <v>-0.2077217742360722</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.275108217117264</v>
+      </c>
+      <c r="G91">
+        <v>0.01547522509087595</v>
+      </c>
+      <c r="H91">
+        <v>-0.04866664394190989</v>
+      </c>
+      <c r="I91">
+        <v>0.08376163194293815</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.05524667666503235</v>
+        <v>-0.132718835281906</v>
       </c>
       <c r="C92">
-        <v>0.4072562631669178</v>
+        <v>0.4086203871094209</v>
       </c>
       <c r="D92">
-        <v>0.1580736334038809</v>
+        <v>-0.0120372064202119</v>
       </c>
       <c r="E92">
-        <v>0.09581605166133307</v>
+        <v>0.1168321416175838</v>
       </c>
       <c r="F92">
-        <v>-0.06234953197923892</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1150253081792465</v>
+      </c>
+      <c r="G92">
+        <v>-0.4864727990180969</v>
+      </c>
+      <c r="H92">
+        <v>0.001567928408985659</v>
+      </c>
+      <c r="I92">
+        <v>-0.5195803678809502</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.007509322087788674</v>
+        <v>-0.07968848462596861</v>
       </c>
       <c r="C93">
-        <v>0.3709613604696301</v>
+        <v>0.3840588716799491</v>
       </c>
       <c r="D93">
-        <v>0.08129089149503796</v>
+        <v>-0.04740511517593789</v>
       </c>
       <c r="E93">
-        <v>0.002289739552738949</v>
+        <v>0.1082609964743301</v>
       </c>
       <c r="F93">
-        <v>-0.0320589237872303</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.003821455226984074</v>
+      </c>
+      <c r="G93">
+        <v>0.01629009666720746</v>
+      </c>
+      <c r="H93">
+        <v>0.04976827058513814</v>
+      </c>
+      <c r="I93">
+        <v>0.1157238201731878</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2854102694568452</v>
+        <v>-0.3098256769803519</v>
       </c>
       <c r="C94">
-        <v>0.0844890609467618</v>
+        <v>0.03177372191607802</v>
       </c>
       <c r="D94">
-        <v>-0.03361412021803021</v>
+        <v>-0.03994582379856138</v>
       </c>
       <c r="E94">
-        <v>0.2377004550907469</v>
+        <v>-0.1251651943415191</v>
       </c>
       <c r="F94">
-        <v>-0.2808263800704489</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3234396217729095</v>
+      </c>
+      <c r="G94">
+        <v>-0.04655283595888599</v>
+      </c>
+      <c r="H94">
+        <v>-0.2139764121358313</v>
+      </c>
+      <c r="I94">
+        <v>0.02596957329651067</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.163166654930763</v>
+        <v>-0.1286029003047586</v>
       </c>
       <c r="C95">
-        <v>-0.05846131178443664</v>
+        <v>-0.05836404050525265</v>
       </c>
       <c r="D95">
-        <v>-0.003673685257155358</v>
+        <v>-0.08452364677566773</v>
       </c>
       <c r="E95">
-        <v>0.02122759855306052</v>
+        <v>-0.03471946690959577</v>
       </c>
       <c r="F95">
-        <v>-0.3770602499175854</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.09077822901297641</v>
+      </c>
+      <c r="G95">
+        <v>-0.06214005471493501</v>
+      </c>
+      <c r="H95">
+        <v>0.8933952377495703</v>
+      </c>
+      <c r="I95">
+        <v>-0.1695246403026608</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2148647214433168</v>
+        <v>-0.2081303225744573</v>
       </c>
       <c r="C98">
-        <v>0.1034305311637375</v>
+        <v>0.05569536559628381</v>
       </c>
       <c r="D98">
-        <v>0.03557747266407555</v>
+        <v>-0.06498774110045578</v>
       </c>
       <c r="E98">
-        <v>-0.08874580388659262</v>
+        <v>0.02958247221884551</v>
       </c>
       <c r="F98">
-        <v>0.04011933486435792</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1637654660067651</v>
+      </c>
+      <c r="G98">
+        <v>0.3276851262430798</v>
+      </c>
+      <c r="H98">
+        <v>0.002772886617437976</v>
+      </c>
+      <c r="I98">
+        <v>-0.1692645884224415</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.02580753917751625</v>
+        <v>-0.01721708427157601</v>
       </c>
       <c r="C101">
-        <v>-0.02428567845236842</v>
+        <v>-0.02757412193802032</v>
       </c>
       <c r="D101">
-        <v>-0.03383546512360552</v>
+        <v>0.005805207945744457</v>
       </c>
       <c r="E101">
-        <v>-0.02844827301812735</v>
+        <v>-0.03641123715742572</v>
       </c>
       <c r="F101">
-        <v>0.02194973113821634</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.06528612591560443</v>
+      </c>
+      <c r="G101">
+        <v>-0.1198302454854595</v>
+      </c>
+      <c r="H101">
+        <v>-0.01477388266078634</v>
+      </c>
+      <c r="I101">
+        <v>-0.0755716874876604</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1113033607781457</v>
+        <v>-0.1169674563032985</v>
       </c>
       <c r="C102">
-        <v>-0.02914777508771659</v>
+        <v>-0.03072385892213285</v>
       </c>
       <c r="D102">
-        <v>-0.04153039088148253</v>
+        <v>0.007098659375081951</v>
       </c>
       <c r="E102">
-        <v>0.08005499031619748</v>
+        <v>-0.0571527136756267</v>
       </c>
       <c r="F102">
-        <v>-0.06054988715274665</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.1110378573827834</v>
+      </c>
+      <c r="G102">
+        <v>0.005857670119610013</v>
+      </c>
+      <c r="H102">
+        <v>-0.002836638700400085</v>
+      </c>
+      <c r="I102">
+        <v>0.06676386390545955</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.02100684898450332</v>
+        <v>-0.0292236513251616</v>
       </c>
       <c r="C103">
-        <v>-0.007243594622432291</v>
+        <v>-0.007277164041838466</v>
       </c>
       <c r="D103">
-        <v>-0.01058382338794817</v>
+        <v>0.008943942505202909</v>
       </c>
       <c r="E103">
-        <v>0.007329562737954674</v>
+        <v>-0.02086143804779386</v>
       </c>
       <c r="F103">
-        <v>-0.03801505313185324</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.02701404145363186</v>
+      </c>
+      <c r="G103">
+        <v>-0.01519773044634723</v>
+      </c>
+      <c r="H103">
+        <v>0.00963469713797957</v>
+      </c>
+      <c r="I103">
+        <v>0.02240288921584124</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
